--- a/output/StructureDefinition-RecuperoLaboratorioSolicitud.xlsx
+++ b/output/StructureDefinition-RecuperoLaboratorioSolicitud.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-12T16:20:05-03:00</t>
+    <t>2025-07-12T17:02:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-RecuperoLaboratorioSolicitud.xlsx
+++ b/output/StructureDefinition-RecuperoLaboratorioSolicitud.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-12T17:02:17-03:00</t>
+    <t>2025-07-14T12:58:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-RecuperoLaboratorioSolicitud.xlsx
+++ b/output/StructureDefinition-RecuperoLaboratorioSolicitud.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="267">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-14T12:58:17-03:00</t>
+    <t>2025-07-14T16:52:57-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Mapping from RecuperoLaboratorioSolicitud Logical Model to FHIR Bundle</t>
   </si>
   <si>
     <t>0</t>
@@ -258,6 +261,9 @@
 </t>
   </si>
   <si>
+    <t>Bundle.entry[6].resource.subject.reference = 'urn:uuid:' + patientUuid</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.DatosPaciente.id</t>
   </si>
   <si>
@@ -340,24 +346,36 @@
     <t>Identificador único para el paciente</t>
   </si>
   <si>
+    <t>Bundle.entry[0].resource.identifier[0].use = #usual</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.DatosPaciente.apellidoPaciente</t>
   </si>
   <si>
     <t>Apellido(s) del paciente</t>
   </si>
   <si>
+    <t>Bundle.entry[0].resource.name[0]._family.extension[1].valueString</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.DatosPaciente.otroApellidoPaciente</t>
   </si>
   <si>
     <t>Otro(s) apellido(s) del paciente</t>
   </si>
   <si>
+    <t>Bundle.entry[0].resource.name[0]._family.extension[0].valueString</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.DatosPaciente.nombrePaciente</t>
   </si>
   <si>
     <t>Nombre(s) del paciente</t>
   </si>
   <si>
+    <t>Bundle.entry[0].resource.name[0].given</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.DatosPaciente.otroNombrePaciente</t>
   </si>
   <si>
@@ -370,22 +388,34 @@
     <t>Nombre autopercibido o preferido del paciente</t>
   </si>
   <si>
+    <t>Bundle.entry[0].resource.name[1].given</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.DatosPaciente.tipoDocumentoPaciente</t>
   </si>
   <si>
     <t>Tipo de documento de identificación del paciente (ej., DNI, Pasaporte)</t>
   </si>
   <si>
+    <t>Bundle.entry[0].resource.identifier[1].system = 'http://renaper.gob.ar/dni'</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.DatosPaciente.documentoPaciente</t>
   </si>
   <si>
     <t>Número de documento de identificación del paciente</t>
   </si>
   <si>
+    <t>Bundle.entry[0].resource.identifier[1].use = #official</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.DatosPaciente.codSexoPaciente</t>
   </si>
   <si>
     <t>Sexo del paciente (ej., Masculino, Femenino, Otro)</t>
+  </si>
+  <si>
+    <t>Bundle.entry[0].resource.gender</t>
   </si>
   <si>
     <t>RecuperoLaboratorioSolicitud.DatosPaciente.fechaNacimientoPaciente</t>
@@ -398,12 +428,18 @@
     <t>Fecha de nacimiento del paciente</t>
   </si>
   <si>
+    <t>Bundle.entry[0].resource.birthDate</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.DatosContexto</t>
   </si>
   <si>
     <t>Contexto del Servicio Realizado</t>
   </si>
   <si>
+    <t>Bundle.entry[3].resource.supportingInfo[0].valueReference.reference = 'urn:uuid:' + documentUuid</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.DatosContexto.id</t>
   </si>
   <si>
@@ -419,12 +455,18 @@
     <t>Contexto de la solicitud (ej., Guardia, Internación, Ambulatorio)</t>
   </si>
   <si>
+    <t>Bundle.entry[1].resource.locationCode[0].text</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.DatosContexto.idEpisodio</t>
   </si>
   <si>
     <t>Identificador del episodio clínico, si aplica</t>
   </si>
   <si>
+    <t>Bundle.entry[2].resource.identifier[0].value</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.DatosContexto.desEfectorProcesamiento</t>
   </si>
   <si>
@@ -455,12 +497,18 @@
     <t>Identificador de la solicitud (Id_solicitud)</t>
   </si>
   <si>
+    <t>Bundle.entry[1].resource.identifier[0].value</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.DiagnosticoPresuntivo</t>
   </si>
   <si>
     <t>Información de Diagnósticos</t>
   </si>
   <si>
+    <t>Bundle.entry[3].resource</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.DiagnosticoPresuntivo.id</t>
   </si>
   <si>
@@ -476,30 +524,45 @@
     <t>Identificador del código de diagnóstico local</t>
   </si>
   <si>
+    <t>Bundle.entry[3].resource.diagnosis[0].diagnosisCodeableConcept.coding[0].code</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.DiagnosticoPresuntivo.desDiagnosticoTm</t>
   </si>
   <si>
     <t>Descripción del diagnóstico local</t>
   </si>
   <si>
+    <t>Bundle.entry[3].resource.diagnosis[0].diagnosisCodeableConcept.coding[0].display</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.DiagnosticoPresuntivo.codDiagnosticoSnomed</t>
   </si>
   <si>
     <t>Identificador SNOMED CT para el diagnóstico</t>
   </si>
   <si>
+    <t>Bundle.entry[3].resource.diagnosis[0].diagnosisCodeableConcept.coding[1].code</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.DiagnosticoPresuntivo.desDiagnosticoSnomed</t>
   </si>
   <si>
     <t>Descripción SNOMED CT para el diagnóstico</t>
   </si>
   <si>
+    <t>Bundle.entry[3].resource.diagnosis[0].diagnosisCodeableConcept.coding[1].display</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.ProfesionalSolicitante</t>
   </si>
   <si>
     <t>Información del Profesional (Solicitante)</t>
   </si>
   <si>
+    <t>Bundle.entry[4].resource</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.ProfesionalSolicitante.id</t>
   </si>
   <si>
@@ -515,30 +578,54 @@
     <t>Identificador de la profesión del profesional solicitante</t>
   </si>
   <si>
+    <t>Bundle.entry[4].resource.qualification[0].code.coding[0].code</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.ProfesionalSolicitante.desProfesionSolicitante</t>
   </si>
   <si>
     <t>Profesión del profesional solicitante</t>
   </si>
   <si>
+    <t>Bundle.entry[4].resource.qualification[0].code.coding[0].display</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.ProfesionalSolicitante.codTipoMatriculaSolicitante</t>
   </si>
   <si>
     <t>Tipo de matrícula profesional del profesional solicitante</t>
   </si>
   <si>
+    <t>Bundle.entry[4].resource.identifier[0].system = 'http://recuperocaba.gob.ar/CodeSystem/recupero-tipos-matricula/' + codTipoMatriculaSolicitante</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.ProfesionalSolicitante.idMatriculaSolicitante</t>
   </si>
   <si>
     <t>Número de matrícula del profesional solicitante</t>
   </si>
   <si>
+    <t>Bundle.entry[4].resource.identifier[0].value</t>
+  </si>
+  <si>
+    <t>RecuperoLaboratorioSolicitud.ProfesionalSolicitante.profesionalSolicitante</t>
+  </si>
+  <si>
+    <t>Nombre del Profesional Solicitante</t>
+  </si>
+  <si>
+    <t>Bundle.entry[4].resource.name[0].text</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.ProfesionalEfector</t>
   </si>
   <si>
     <t>Información del Profesional (Firmante/Atendedor)</t>
   </si>
   <si>
+    <t>Bundle.entry[5].resource</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.ProfesionalEfector.id</t>
   </si>
   <si>
@@ -554,36 +641,54 @@
     <t>Identificador de la profesión del profesional firmante/atendedor</t>
   </si>
   <si>
+    <t>Bundle.entry[5].resource.qualification[0].code.coding[0].code</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.ProfesionalEfector.desProfesionFirmante</t>
   </si>
   <si>
     <t>Profesión del profesional firmante/atendedor</t>
   </si>
   <si>
+    <t>Bundle.entry[5].resource.qualification[0].code.coding[0].display</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.ProfesionalEfector.profesional</t>
   </si>
   <si>
     <t>Nombre del profesional firmante/atendedor</t>
   </si>
   <si>
+    <t>Bundle.entry[5].resource.name[0].text</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.ProfesionalEfector.codTipoMatriculaFirmante</t>
   </si>
   <si>
     <t>Identificador de la matrícula del profesional firmante/atendedor</t>
   </si>
   <si>
+    <t>Bundle.entry[5].resource.identifier[0].system = 'http://recuperocaba.gob.ar/CodeSystem/recupero-tipos-matricula/' + codTipoMatriculaFirmante</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.ProfesionalEfector.idMatriculaFirmante</t>
   </si>
   <si>
     <t>Número de matrícula del profesional firmante/atendedor</t>
   </si>
   <si>
+    <t>Bundle.entry[5].resource.identifier[0].value</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.FechasServicio</t>
   </si>
   <si>
     <t>Fechas del Servicio Realizado</t>
   </si>
   <si>
+    <t>Bundle.entry[1].resource</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.FechasServicio.id</t>
   </si>
   <si>
@@ -599,12 +704,18 @@
     <t>Fecha en que se tomó la muestra</t>
   </si>
   <si>
+    <t>Bundle.entry[1].resource.occurrenceDateTime</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.FechasServicio.fechaResultado</t>
   </si>
   <si>
     <t>Fecha en que se obtuvo el resultado</t>
   </si>
   <si>
+    <t>Bundle.entry[1].resource.authoredOn</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.DatosCobertura</t>
   </si>
   <si>
@@ -626,22 +737,34 @@
     <t>Codigo de Cobertura</t>
   </si>
   <si>
+    <t>Bundle.entry[3].resource.insurance[0].coverage.identifier.value</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.DatosCobertura.desCobertura</t>
   </si>
   <si>
     <t>Descripción de la cobertura/seguro del paciente</t>
   </si>
   <si>
+    <t>Bundle.entry[3].resource.insurance[0].coverage.display</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.DatosCobertura.idCobertura</t>
   </si>
   <si>
     <t>Numero de Carnet del Paciente</t>
   </si>
   <si>
+    <t>Bundle.entry[3].resource.insurance[0].coverage.identifier[1].value</t>
+  </si>
+  <si>
     <t>RecuperoLaboratorioSolicitud.documentacionAuditoria</t>
   </si>
   <si>
     <t>Archivos Adjuntos Documentando Servicio</t>
+  </si>
+  <si>
+    <t>Bundle.entry[6].resource.content[0].attachment.data</t>
   </si>
   <si>
     <t>RecuperoLaboratorioSolicitud.prestaciones</t>
@@ -652,6 +775,57 @@
   </si>
   <si>
     <t>Lista de servicios/procedimientos solicitados</t>
+  </si>
+  <si>
+    <t>Bundle.entry[3].resource.procedure</t>
+  </si>
+  <si>
+    <t>RecuperoLaboratorioSolicitud.prestaciones.codPrestacion</t>
+  </si>
+  <si>
+    <t>Identificador de la prestación/procedimiento</t>
+  </si>
+  <si>
+    <t>RecuperoLaboratorioPrestacion.codPrestacion</t>
+  </si>
+  <si>
+    <t>Bundle.entry[3].resource.procedure[].procedureCodeableConcept.coding[0].code</t>
+  </si>
+  <si>
+    <t>RecuperoLaboratorioSolicitud.prestaciones.desPrestacion</t>
+  </si>
+  <si>
+    <t>Descripción de la prestación/procedimiento</t>
+  </si>
+  <si>
+    <t>RecuperoLaboratorioPrestacion.desPrestacion</t>
+  </si>
+  <si>
+    <t>Bundle.entry[3].resource.procedure[].procedureCodeableConcept.coding[0].display</t>
+  </si>
+  <si>
+    <t>RecuperoLaboratorioSolicitud.prestaciones.codSnomed</t>
+  </si>
+  <si>
+    <t>Identificador SNOMED CT para la prestación/procedimiento</t>
+  </si>
+  <si>
+    <t>RecuperoLaboratorioPrestacion.codSnomed</t>
+  </si>
+  <si>
+    <t>Bundle.entry[3].resource.procedure[].procedureCodeableConcept.coding[1].code</t>
+  </si>
+  <si>
+    <t>RecuperoLaboratorioSolicitud.prestaciones.desPrestacionSnomed</t>
+  </si>
+  <si>
+    <t>Descripción SNOMED CT para la prestación/procedimiento</t>
+  </si>
+  <si>
+    <t>RecuperoLaboratorioPrestacion.desPrestacionSnomed</t>
+  </si>
+  <si>
+    <t>Bundle.entry[3].resource.procedure[].procedureCodeableConcept.coding[1].display</t>
   </si>
 </sst>
 </file>
@@ -954,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ67"/>
+  <dimension ref="A1:AK72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -998,6 +1172,7 @@
     <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
+    <col min="37" max="37" width="114.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1109,6 +1284,9 @@
       <c r="AJ1" t="s" s="1">
         <v>70</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1123,10 +1301,10 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>19</v>
@@ -1138,7 +1316,7 @@
         <v>19</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>7</v>
@@ -1195,27 +1373,30 @@
         <v>19</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1223,10 +1404,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>19</v>
@@ -1238,13 +1419,13 @@
         <v>19</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1295,27 +1476,30 @@
         <v>19</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1323,10 +1507,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>19</v>
@@ -1338,13 +1522,13 @@
         <v>19</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1395,38 +1579,41 @@
         <v>19</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>19</v>
@@ -1438,16 +1625,16 @@
         <v>19</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1485,74 +1672,77 @@
         <v>19</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P6" t="s" s="2">
         <v>19</v>
@@ -1601,27 +1791,30 @@
         <v>19</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1629,10 +1822,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>19</v>
@@ -1644,13 +1837,13 @@
         <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1701,27 +1894,30 @@
         <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1729,10 +1925,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>19</v>
@@ -1744,13 +1940,13 @@
         <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1801,27 +1997,30 @@
         <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1829,10 +2028,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>19</v>
@@ -1844,13 +2043,13 @@
         <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1901,27 +2100,30 @@
         <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1929,10 +2131,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>19</v>
@@ -1944,13 +2146,13 @@
         <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2001,27 +2203,30 @@
         <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2029,10 +2234,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>19</v>
@@ -2044,13 +2249,13 @@
         <v>19</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2101,27 +2306,30 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2129,10 +2337,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>19</v>
@@ -2144,13 +2352,13 @@
         <v>19</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2201,27 +2409,30 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2229,10 +2440,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>19</v>
@@ -2244,13 +2455,13 @@
         <v>19</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2301,27 +2512,30 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2329,10 +2543,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>19</v>
@@ -2344,13 +2558,13 @@
         <v>19</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2401,27 +2615,30 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2429,10 +2646,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>19</v>
@@ -2444,13 +2661,13 @@
         <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2501,27 +2718,30 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2529,10 +2749,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>19</v>
@@ -2544,13 +2764,13 @@
         <v>19</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2601,27 +2821,30 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>134</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2629,10 +2852,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>19</v>
@@ -2644,13 +2867,13 @@
         <v>19</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2701,27 +2924,30 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2729,10 +2955,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>19</v>
@@ -2744,13 +2970,13 @@
         <v>19</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2801,38 +3027,41 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>19</v>
@@ -2844,16 +3073,16 @@
         <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2891,74 +3120,77 @@
         <v>19</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>19</v>
@@ -3007,27 +3239,30 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3035,10 +3270,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>19</v>
@@ -3050,13 +3285,13 @@
         <v>19</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3107,27 +3342,30 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>143</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3135,10 +3373,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>19</v>
@@ -3150,13 +3388,13 @@
         <v>19</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3207,27 +3445,30 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>146</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3235,10 +3476,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>19</v>
@@ -3250,13 +3491,13 @@
         <v>19</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3307,27 +3548,30 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>143</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3335,10 +3579,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>19</v>
@@ -3350,13 +3594,13 @@
         <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3407,27 +3651,30 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>143</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3435,10 +3682,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>19</v>
@@ -3450,13 +3697,13 @@
         <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3507,27 +3754,30 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>143</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3535,10 +3785,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>19</v>
@@ -3550,13 +3800,13 @@
         <v>19</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3607,27 +3857,30 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>143</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3635,10 +3888,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>19</v>
@@ -3650,13 +3903,13 @@
         <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3707,27 +3960,30 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>157</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3735,10 +3991,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>19</v>
@@ -3750,13 +4006,13 @@
         <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3807,27 +4063,30 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>160</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3835,10 +4094,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>19</v>
@@ -3850,13 +4109,13 @@
         <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3907,38 +4166,41 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>19</v>
@@ -3950,16 +4212,16 @@
         <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -3997,74 +4259,77 @@
         <v>19</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -4113,27 +4378,30 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4141,10 +4409,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>19</v>
@@ -4156,13 +4424,13 @@
         <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4213,27 +4481,30 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>166</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4241,10 +4512,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>19</v>
@@ -4256,13 +4527,13 @@
         <v>19</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4313,27 +4584,30 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>169</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4341,10 +4615,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>19</v>
@@ -4356,13 +4630,13 @@
         <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4413,27 +4687,30 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>172</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4441,10 +4718,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>19</v>
@@ -4456,13 +4733,13 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4513,27 +4790,30 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>175</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4541,10 +4821,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>19</v>
@@ -4556,13 +4836,13 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4613,27 +4893,30 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>178</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4641,10 +4924,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>19</v>
@@ -4656,13 +4939,13 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4713,38 +4996,41 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>19</v>
@@ -4756,16 +5042,16 @@
         <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -4803,74 +5089,77 @@
         <v>19</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>19</v>
@@ -4919,27 +5208,30 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -4947,10 +5239,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>19</v>
@@ -4962,13 +5254,13 @@
         <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5019,27 +5311,30 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>184</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5047,10 +5342,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>19</v>
@@ -5062,13 +5357,13 @@
         <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5119,27 +5414,30 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>187</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5147,10 +5445,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>19</v>
@@ -5162,13 +5460,13 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5219,27 +5517,30 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>190</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5247,10 +5548,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>19</v>
@@ -5262,13 +5563,13 @@
         <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5319,27 +5620,30 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>193</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5347,10 +5651,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>19</v>
@@ -5362,13 +5666,13 @@
         <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5419,27 +5723,30 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>19</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>196</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5447,10 +5754,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>19</v>
@@ -5462,13 +5769,13 @@
         <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -5519,38 +5826,41 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>19</v>
+        <v>80</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>199</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>19</v>
@@ -5562,17 +5872,15 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -5609,75 +5917,76 @@
         <v>19</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>95</v>
+        <v>19</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>19</v>
       </c>
@@ -5713,71 +6022,78 @@
         <v>19</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>19</v>
       </c>
@@ -5825,27 +6141,30 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -5853,10 +6172,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>19</v>
@@ -5868,13 +6187,13 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -5925,27 +6244,30 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>205</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -5953,10 +6275,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>19</v>
@@ -5968,13 +6290,13 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6025,27 +6347,30 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>208</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6053,10 +6378,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>19</v>
@@ -6068,13 +6393,13 @@
         <v>19</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6125,27 +6450,30 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>211</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6153,10 +6481,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>19</v>
@@ -6168,13 +6496,13 @@
         <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6225,27 +6553,30 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>214</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6253,10 +6584,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>19</v>
@@ -6268,13 +6599,13 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -6325,27 +6656,30 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>79</v>
+        <v>19</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>217</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6353,10 +6687,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>19</v>
@@ -6368,13 +6702,13 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6425,38 +6759,41 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>84</v>
+        <v>218</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>19</v>
+        <v>80</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>220</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>19</v>
@@ -6468,17 +6805,15 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>19</v>
@@ -6515,75 +6850,76 @@
         <v>19</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>19</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>19</v>
       </c>
@@ -6619,71 +6955,78 @@
         <v>19</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>19</v>
       </c>
@@ -6731,27 +7074,30 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -6759,10 +7105,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>19</v>
@@ -6774,13 +7120,13 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -6831,27 +7177,30 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>226</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -6859,10 +7208,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>19</v>
@@ -6874,13 +7223,13 @@
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -6931,27 +7280,30 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>19</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>229</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -6959,10 +7311,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>19</v>
@@ -6974,13 +7326,13 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -7031,38 +7383,41 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>19</v>
+        <v>80</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>160</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>19</v>
@@ -7074,17 +7429,15 @@
         <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>19</v>
@@ -7121,75 +7474,76 @@
         <v>19</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>19</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>19</v>
       </c>
@@ -7225,71 +7579,78 @@
         <v>19</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>19</v>
       </c>
@@ -7337,27 +7698,30 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7365,10 +7729,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>19</v>
@@ -7380,13 +7744,13 @@
         <v>19</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -7437,27 +7801,30 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>237</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -7465,10 +7832,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>19</v>
@@ -7480,13 +7847,13 @@
         <v>19</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -7537,27 +7904,30 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>240</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -7565,10 +7935,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>19</v>
@@ -7580,13 +7950,13 @@
         <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -7637,27 +8007,30 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>243</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -7665,10 +8038,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>19</v>
@@ -7680,13 +8053,13 @@
         <v>19</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -7737,19 +8110,537 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>19</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
